--- a/downloaded_files/EECS102_Tutorial-35285.xlsx
+++ b/downloaded_files/EECS102_Tutorial-35285.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -60,6 +60,15 @@
     <x:t>ِAwab Tamer Zakaria</x:t>
   </x:si>
   <x:si>
+    <x:t>4250170</x:t>
+  </x:si>
+  <x:si>
+    <x:t>حازم عصمت محمود اسماعيل احمد ابوجبل</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hazem Essmat</x:t>
+  </x:si>
+  <x:si>
     <x:t>1240053</x:t>
   </x:si>
   <x:si>
@@ -127,6 +136,15 @@
   </x:si>
   <x:si>
     <x:t>Abdulrahman Ahmed Mahmoud Ali Salama</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4250180</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عبدالله فريد عبدالله محمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Abdullah Farid Abdullah Mohammed</x:t>
   </x:si>
   <x:si>
     <x:t>1240093</x:t>
@@ -359,7 +377,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E25" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E27" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -659,7 +677,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T25"/>
+  <x:dimension ref="A1:T27"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -669,7 +687,7 @@
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="34.420625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="50.930625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="15.110625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
   </x:cols>
@@ -846,7 +864,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45907.6648021991</x:v>
+        <x:v>45921.6244441782</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -878,7 +896,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45907.6662652778</x:v>
+        <x:v>45907.6648021991</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -910,7 +928,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45907.6648476505</x:v>
+        <x:v>45907.6662652778</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -942,7 +960,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45907.6651474537</x:v>
+        <x:v>45907.6648476505</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -970,9 +988,11 @@
       <x:c r="C9" s="2" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="D9" s="2" t="s"/>
+      <x:c r="D9" s="2" t="s">
+        <x:v>28</x:v>
+      </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.6648420486</x:v>
+        <x:v>45907.6651474537</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -995,16 +1015,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B10" s="2" t="s">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="C10" s="2" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="D10" s="2" t="s">
         <x:v>30</x:v>
       </x:c>
+      <x:c r="D10" s="2" t="s"/>
       <x:c r="E10" s="3">
-        <x:v>45907.6651076736</x:v>
+        <x:v>45907.6648420486</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1036,7 +1054,7 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.6647413194</x:v>
+        <x:v>45907.6651076736</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1068,7 +1086,7 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.6651743056</x:v>
+        <x:v>45907.6647413194</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1100,7 +1118,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.6659865394</x:v>
+        <x:v>45907.6651743056</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1132,7 +1150,7 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.6648382292</x:v>
+        <x:v>45921.614566169</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1164,7 +1182,7 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.6662529745</x:v>
+        <x:v>45907.6659865394</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1196,7 +1214,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.6655778935</x:v>
+        <x:v>45907.6648382292</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1228,7 +1246,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.6651312153</x:v>
+        <x:v>45907.6662529745</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1260,7 +1278,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.6651053241</x:v>
+        <x:v>45907.6655778935</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1292,7 +1310,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.6652144676</x:v>
+        <x:v>45907.6651312153</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1324,7 +1342,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.6658883449</x:v>
+        <x:v>45907.6651053241</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1356,7 +1374,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.6650548611</x:v>
+        <x:v>45907.6652144676</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1388,7 +1406,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.6650592245</x:v>
+        <x:v>45907.6658883449</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1420,7 +1438,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.6658175579</x:v>
+        <x:v>45907.6650548611</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1452,7 +1470,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.6650471065</x:v>
+        <x:v>45907.6650592245</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1484,7 +1502,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.6665474537</x:v>
+        <x:v>45907.6658175579</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1501,6 +1519,70 @@
       <x:c r="R25" s="2" t="s"/>
       <x:c r="S25" s="2" t="s"/>
       <x:c r="T25" s="2" t="s"/>
+    </x:row>
+    <x:row r="26" spans="1:20">
+      <x:c r="A26" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B26" s="2" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="C26" s="2" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="D26" s="2" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="E26" s="3">
+        <x:v>45907.6650471065</x:v>
+      </x:c>
+      <x:c r="F26" s="2" t="s"/>
+      <x:c r="G26" s="2" t="s"/>
+      <x:c r="H26" s="2" t="s"/>
+      <x:c r="I26" s="2" t="s"/>
+      <x:c r="J26" s="2" t="s"/>
+      <x:c r="K26" s="2" t="s"/>
+      <x:c r="L26" s="2" t="s"/>
+      <x:c r="M26" s="2" t="s"/>
+      <x:c r="N26" s="2" t="s"/>
+      <x:c r="O26" s="2" t="s"/>
+      <x:c r="P26" s="2" t="s"/>
+      <x:c r="Q26" s="2" t="s"/>
+      <x:c r="R26" s="2" t="s"/>
+      <x:c r="S26" s="2" t="s"/>
+      <x:c r="T26" s="2" t="s"/>
+    </x:row>
+    <x:row r="27" spans="1:20">
+      <x:c r="A27" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B27" s="2" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="C27" s="2" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="D27" s="2" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="E27" s="3">
+        <x:v>45907.6665474537</x:v>
+      </x:c>
+      <x:c r="F27" s="2" t="s"/>
+      <x:c r="G27" s="2" t="s"/>
+      <x:c r="H27" s="2" t="s"/>
+      <x:c r="I27" s="2" t="s"/>
+      <x:c r="J27" s="2" t="s"/>
+      <x:c r="K27" s="2" t="s"/>
+      <x:c r="L27" s="2" t="s"/>
+      <x:c r="M27" s="2" t="s"/>
+      <x:c r="N27" s="2" t="s"/>
+      <x:c r="O27" s="2" t="s"/>
+      <x:c r="P27" s="2" t="s"/>
+      <x:c r="Q27" s="2" t="s"/>
+      <x:c r="R27" s="2" t="s"/>
+      <x:c r="S27" s="2" t="s"/>
+      <x:c r="T27" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EECS102_Tutorial-35285.xlsx
+++ b/downloaded_files/EECS102_Tutorial-35285.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -31,6 +31,15 @@
   </x:si>
   <x:si>
     <x:t>Date</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4250161</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ابراهيم حسن كامل احمد قاسم</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ibrahim Hassan Kamel Ahmed Qasim</x:t>
   </x:si>
   <x:si>
     <x:t>1240005</x:t>
@@ -377,7 +386,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E27" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E28" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -677,7 +686,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T27"/>
+  <x:dimension ref="A1:T28"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -768,7 +777,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="E2" s="3">
-        <x:v>45907.6661513542</x:v>
+        <x:v>45922.3696577546</x:v>
       </x:c>
       <x:c r="F2" s="2" t="s"/>
       <x:c r="G2" s="2" t="s"/>
@@ -800,7 +809,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45907.665140625</x:v>
+        <x:v>45907.6661513542</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -832,7 +841,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45907.6651261574</x:v>
+        <x:v>45907.665140625</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -864,7 +873,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45921.6244441782</x:v>
+        <x:v>45907.6651261574</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -896,7 +905,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45907.6648021991</x:v>
+        <x:v>45921.6244441782</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -928,7 +937,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45907.6662652778</x:v>
+        <x:v>45907.6648021991</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -960,7 +969,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45907.6648476505</x:v>
+        <x:v>45907.6662652778</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -992,7 +1001,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.6651474537</x:v>
+        <x:v>45907.6648476505</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1020,9 +1029,11 @@
       <x:c r="C10" s="2" t="s">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="D10" s="2" t="s"/>
+      <x:c r="D10" s="2" t="s">
+        <x:v>31</x:v>
+      </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.6648420486</x:v>
+        <x:v>45907.6651474537</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1045,16 +1056,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B11" s="2" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C11" s="2" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="D11" s="2" t="s">
         <x:v>33</x:v>
       </x:c>
+      <x:c r="D11" s="2" t="s"/>
       <x:c r="E11" s="3">
-        <x:v>45907.6651076736</x:v>
+        <x:v>45907.6648420486</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1086,7 +1095,7 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.6647413194</x:v>
+        <x:v>45907.6651076736</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1118,7 +1127,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.6651743056</x:v>
+        <x:v>45907.6647413194</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1150,7 +1159,7 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45921.614566169</x:v>
+        <x:v>45907.6651743056</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1182,7 +1191,7 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.6659865394</x:v>
+        <x:v>45921.614566169</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1214,7 +1223,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.6648382292</x:v>
+        <x:v>45907.6659865394</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1246,7 +1255,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.6662529745</x:v>
+        <x:v>45907.6648382292</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1278,7 +1287,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.6655778935</x:v>
+        <x:v>45907.6662529745</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1310,7 +1319,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.6651312153</x:v>
+        <x:v>45907.6655778935</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1342,7 +1351,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.6651053241</x:v>
+        <x:v>45907.6651312153</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1374,7 +1383,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.6652144676</x:v>
+        <x:v>45907.6651053241</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1406,7 +1415,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.6658883449</x:v>
+        <x:v>45907.6652144676</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1438,7 +1447,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.6650548611</x:v>
+        <x:v>45907.6658883449</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1470,7 +1479,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.6650592245</x:v>
+        <x:v>45907.6650548611</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1502,7 +1511,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.6658175579</x:v>
+        <x:v>45907.6650592245</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1534,7 +1543,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.6650471065</x:v>
+        <x:v>45907.6658175579</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1566,7 +1575,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.6665474537</x:v>
+        <x:v>45907.6650471065</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1583,6 +1592,38 @@
       <x:c r="R27" s="2" t="s"/>
       <x:c r="S27" s="2" t="s"/>
       <x:c r="T27" s="2" t="s"/>
+    </x:row>
+    <x:row r="28" spans="1:20">
+      <x:c r="A28" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B28" s="2" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="C28" s="2" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="D28" s="2" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="E28" s="3">
+        <x:v>45907.6665474537</x:v>
+      </x:c>
+      <x:c r="F28" s="2" t="s"/>
+      <x:c r="G28" s="2" t="s"/>
+      <x:c r="H28" s="2" t="s"/>
+      <x:c r="I28" s="2" t="s"/>
+      <x:c r="J28" s="2" t="s"/>
+      <x:c r="K28" s="2" t="s"/>
+      <x:c r="L28" s="2" t="s"/>
+      <x:c r="M28" s="2" t="s"/>
+      <x:c r="N28" s="2" t="s"/>
+      <x:c r="O28" s="2" t="s"/>
+      <x:c r="P28" s="2" t="s"/>
+      <x:c r="Q28" s="2" t="s"/>
+      <x:c r="R28" s="2" t="s"/>
+      <x:c r="S28" s="2" t="s"/>
+      <x:c r="T28" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EECS102_Tutorial-35285.xlsx
+++ b/downloaded_files/EECS102_Tutorial-35285.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -199,6 +199,15 @@
   </x:si>
   <x:si>
     <x:t>Karim Osama Mahmoud Abd El Kader Youssef</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4250211</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمد حمزه محمد زعزوع</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mohammed Hamza Mohammed</x:t>
   </x:si>
   <x:si>
     <x:t>1240138</x:t>
@@ -386,7 +395,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E28" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E29" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -686,7 +695,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T28"/>
+  <x:dimension ref="A1:T29"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1383,7 +1392,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.6651053241</x:v>
+        <x:v>45923.5143698264</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1415,7 +1424,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.6652144676</x:v>
+        <x:v>45907.6651053241</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1447,7 +1456,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.6658883449</x:v>
+        <x:v>45907.6652144676</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1479,7 +1488,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.6650548611</x:v>
+        <x:v>45907.6658883449</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1511,7 +1520,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.6650592245</x:v>
+        <x:v>45907.6650548611</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1543,7 +1552,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.6658175579</x:v>
+        <x:v>45907.6650592245</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1575,7 +1584,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.6650471065</x:v>
+        <x:v>45907.6658175579</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1607,7 +1616,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.6665474537</x:v>
+        <x:v>45907.6650471065</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1624,6 +1633,38 @@
       <x:c r="R28" s="2" t="s"/>
       <x:c r="S28" s="2" t="s"/>
       <x:c r="T28" s="2" t="s"/>
+    </x:row>
+    <x:row r="29" spans="1:20">
+      <x:c r="A29" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B29" s="2" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="C29" s="2" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="D29" s="2" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="E29" s="3">
+        <x:v>45907.6665474537</x:v>
+      </x:c>
+      <x:c r="F29" s="2" t="s"/>
+      <x:c r="G29" s="2" t="s"/>
+      <x:c r="H29" s="2" t="s"/>
+      <x:c r="I29" s="2" t="s"/>
+      <x:c r="J29" s="2" t="s"/>
+      <x:c r="K29" s="2" t="s"/>
+      <x:c r="L29" s="2" t="s"/>
+      <x:c r="M29" s="2" t="s"/>
+      <x:c r="N29" s="2" t="s"/>
+      <x:c r="O29" s="2" t="s"/>
+      <x:c r="P29" s="2" t="s"/>
+      <x:c r="Q29" s="2" t="s"/>
+      <x:c r="R29" s="2" t="s"/>
+      <x:c r="S29" s="2" t="s"/>
+      <x:c r="T29" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EECS102_Tutorial-35285.xlsx
+++ b/downloaded_files/EECS102_Tutorial-35285.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -199,6 +199,15 @@
   </x:si>
   <x:si>
     <x:t>Karim Osama Mahmoud Abd El Kader Youssef</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240181</x:t>
+  </x:si>
+  <x:si>
+    <x:t>كنزى محمد احمد عبد القادر عاشور</x:t>
+  </x:si>
+  <x:si>
+    <x:t>kenzy mohamed ahmed</x:t>
   </x:si>
   <x:si>
     <x:t>4250211</x:t>
@@ -395,7 +404,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E29" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E30" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -695,7 +704,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T29"/>
+  <x:dimension ref="A1:T30"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1392,7 +1401,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45923.5143698264</x:v>
+        <x:v>45924.3285342245</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1424,7 +1433,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.6651053241</x:v>
+        <x:v>45923.5143698264</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1456,7 +1465,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.6652144676</x:v>
+        <x:v>45907.6651053241</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1488,7 +1497,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.6658883449</x:v>
+        <x:v>45907.6652144676</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1520,7 +1529,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.6650548611</x:v>
+        <x:v>45907.6658883449</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1552,7 +1561,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.6650592245</x:v>
+        <x:v>45907.6650548611</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1584,7 +1593,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.6658175579</x:v>
+        <x:v>45907.6650592245</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1616,7 +1625,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.6650471065</x:v>
+        <x:v>45907.6658175579</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1648,7 +1657,7 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.6665474537</x:v>
+        <x:v>45907.6650471065</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1665,6 +1674,38 @@
       <x:c r="R29" s="2" t="s"/>
       <x:c r="S29" s="2" t="s"/>
       <x:c r="T29" s="2" t="s"/>
+    </x:row>
+    <x:row r="30" spans="1:20">
+      <x:c r="A30" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B30" s="2" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="C30" s="2" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="D30" s="2" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="E30" s="3">
+        <x:v>45907.6665474537</x:v>
+      </x:c>
+      <x:c r="F30" s="2" t="s"/>
+      <x:c r="G30" s="2" t="s"/>
+      <x:c r="H30" s="2" t="s"/>
+      <x:c r="I30" s="2" t="s"/>
+      <x:c r="J30" s="2" t="s"/>
+      <x:c r="K30" s="2" t="s"/>
+      <x:c r="L30" s="2" t="s"/>
+      <x:c r="M30" s="2" t="s"/>
+      <x:c r="N30" s="2" t="s"/>
+      <x:c r="O30" s="2" t="s"/>
+      <x:c r="P30" s="2" t="s"/>
+      <x:c r="Q30" s="2" t="s"/>
+      <x:c r="R30" s="2" t="s"/>
+      <x:c r="S30" s="2" t="s"/>
+      <x:c r="T30" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EECS102_Tutorial-35285.xlsx
+++ b/downloaded_files/EECS102_Tutorial-35285.xlsx
@@ -60,15 +60,6 @@
     <x:t>Amina Amgad Rakha Ahmed Hassan</x:t>
   </x:si>
   <x:si>
-    <x:t>1240030</x:t>
-  </x:si>
-  <x:si>
-    <x:t>اواب تامر ذكريا المغازى الشهاوى</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ِAwab Tamer Zakaria</x:t>
-  </x:si>
-  <x:si>
     <x:t>4250170</x:t>
   </x:si>
   <x:si>
@@ -118,6 +109,15 @@
   </x:si>
   <x:si>
     <x:t xml:space="preserve">سعيد احمد سعيد خطاب محمد </x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240069</x:t>
+  </x:si>
+  <x:si>
+    <x:t>سلمى الحسيني محمد عادل محمد الحسيني</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Salma Elhoseny mohammed Adel Elhoseny</x:t>
   </x:si>
   <x:si>
     <x:t>1240324</x:t>
@@ -891,7 +891,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45907.6651261574</x:v>
+        <x:v>45921.6244441782</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -923,7 +923,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45921.6244441782</x:v>
+        <x:v>45907.6648021991</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -955,7 +955,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45907.6648021991</x:v>
+        <x:v>45907.6662652778</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -987,7 +987,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45907.6662652778</x:v>
+        <x:v>45907.6648476505</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1019,7 +1019,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.6648476505</x:v>
+        <x:v>45907.6651474537</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1047,11 +1047,9 @@
       <x:c r="C10" s="2" t="s">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="D10" s="2" t="s">
-        <x:v>31</x:v>
-      </x:c>
+      <x:c r="D10" s="2" t="s"/>
       <x:c r="E10" s="3">
-        <x:v>45907.6651474537</x:v>
+        <x:v>45907.6648420486</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1074,14 +1072,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B11" s="2" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="C11" s="2" t="s">
         <x:v>32</x:v>
       </x:c>
-      <x:c r="C11" s="2" t="s">
+      <x:c r="D11" s="2" t="s">
         <x:v>33</x:v>
       </x:c>
-      <x:c r="D11" s="2" t="s"/>
       <x:c r="E11" s="3">
-        <x:v>45907.6648420486</x:v>
+        <x:v>45914.5370814815</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
